--- a/Travel Sentiment PBL.xlsx
+++ b/Travel Sentiment PBL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colleen Duhlap\Documents\Random Dev Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD390EC0-6876-40A5-B586-4CBFB0974E50}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D4BBEC-7522-44FD-B7C1-F62C95E037AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" tabRatio="707" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>PBI</t>
   </si>
@@ -107,6 +107,9 @@
     <t>High</t>
   </si>
   <si>
+    <t>Low</t>
+  </si>
+  <si>
     <t>Medium</t>
   </si>
   <si>
@@ -153,6 +156,24 @@
   </si>
   <si>
     <t>User wants to find a place to travel to with an up and coming music scene.  Specifically EDM.  So they hop on our travel sentiment app and look for locations that have music as a trending topic.  The obvious ones come up--Seattle, LA, Barcelona… but then they see a cute quirky town in Malta with a TON of festivals coming up.  Sounds exciting!</t>
+  </si>
+  <si>
+    <t>SPIKE: Travel Planning Integration</t>
+  </si>
+  <si>
+    <t>User settles on a location.  Now how much would it cost to travel there?  We'll display cheapest 10%, median, and most expensive 10% of flights/hotels for that area</t>
+  </si>
+  <si>
+    <t>Filter undesirable locations</t>
+  </si>
+  <si>
+    <t>Does the user want to stay in the country?  Does the user want to go abroad?  Allow user to filter locations that are undesirable</t>
+  </si>
+  <si>
+    <t>SPIKE: Logo and User Interface</t>
+  </si>
+  <si>
+    <t>Once major functionality is implemented, make a nice, clear and usable interface</t>
   </si>
 </sst>
 </file>
@@ -1706,7 +1727,7 @@
   <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,7 +1744,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -1732,7 +1753,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -1767,7 +1788,7 @@
     </row>
     <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="59" t="s">
         <v>21</v>
@@ -1785,15 +1806,15 @@
         <v>43477</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>21</v>
@@ -1811,18 +1832,18 @@
         <v>43477</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="40">
         <v>3</v>
@@ -1831,24 +1852,24 @@
         <v>5</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="34">
         <v>43477</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="69">
         <v>4</v>
@@ -1857,47 +1878,89 @@
         <v>5</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="70">
         <v>43477</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="17"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="14">
+        <v>6</v>
+      </c>
+      <c r="D9" s="14">
+        <v>6</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="17">
+        <v>43477</v>
+      </c>
       <c r="G9" s="13"/>
-      <c r="H9" s="20"/>
+      <c r="H9" s="20" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="17"/>
+      <c r="A10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="14">
+        <v>7</v>
+      </c>
+      <c r="D10" s="14">
+        <v>3</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="17">
+        <v>43477</v>
+      </c>
       <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
+      <c r="H10" s="20" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="34"/>
+      <c r="A11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="40">
+        <v>5</v>
+      </c>
+      <c r="D11" s="22">
+        <v>3</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="34">
+        <v>43477</v>
+      </c>
       <c r="G11" s="21"/>
-      <c r="H11" s="43"/>
+      <c r="H11" s="43" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
@@ -3015,7 +3078,7 @@
   <dimension ref="A3:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Travel Sentiment PBL.xlsx
+++ b/Travel Sentiment PBL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colleen Duhlap\Documents\Random Dev Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D4BBEC-7522-44FD-B7C1-F62C95E037AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF388928-6227-47C6-A254-B100A207FA51}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" tabRatio="707" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Glossary" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Backlog - Open'!$A$4:$A$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Backlog - Open'!$A$4:$A$104</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -1137,7 +1137,79 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="311" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="45">
+    <dxf>
+      <font>
+        <color rgb="FFCC00CC"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC00CC"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC00CC"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC00CC"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFCC00CC"/>
@@ -1377,42 +1449,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC00CC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC00CC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1440,19 +1476,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A4:H105" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A4:H104" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H104">
     <sortCondition ref="C4"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PBI" dataDxfId="28"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Agile State" dataDxfId="27"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Priority" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Est. Story Pts" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Importance" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date Added" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Notes" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Story" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PBI" dataDxfId="42"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Agile State" dataDxfId="41"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Priority" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Est. Story Pts" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Importance" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date Added" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Notes" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Story" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1724,10 +1760,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1786,122 +1822,120 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="40">
-        <v>1</v>
-      </c>
-      <c r="D5" s="69">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D5" s="22">
+        <v>3</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5" s="34">
         <v>43477</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C6" s="40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="34">
         <v>43477</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="40">
-        <v>3</v>
-      </c>
-      <c r="D7" s="22">
+      <c r="C7" s="69">
+        <v>4</v>
+      </c>
+      <c r="D7" s="69">
         <v>5</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="70">
         <v>43477</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="69">
-        <v>4</v>
-      </c>
-      <c r="D8" s="69">
-        <v>5</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="70">
+      <c r="C8" s="14">
+        <v>6</v>
+      </c>
+      <c r="D8" s="14">
+        <v>6</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="17">
         <v>43477</v>
       </c>
-      <c r="G8" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G8" s="13"/>
+      <c r="H8" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>23</v>
@@ -1909,158 +1943,144 @@
       <c r="F9" s="17">
         <v>43477</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="14">
-        <v>7</v>
-      </c>
-      <c r="D10" s="14">
+      <c r="C10" s="40">
+        <v>5</v>
+      </c>
+      <c r="D10" s="22">
         <v>3</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="34">
         <v>43477</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20" t="s">
-        <v>43</v>
+      <c r="G10" s="21"/>
+      <c r="H10" s="43" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="40">
-        <v>5</v>
-      </c>
-      <c r="D11" s="22">
-        <v>3</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="34">
-        <v>43477</v>
-      </c>
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="21"/>
-      <c r="H11" s="43" t="s">
-        <v>45</v>
-      </c>
+      <c r="H11" s="43"/>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="43"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="16"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="45"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="46"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
       <c r="B14" s="16"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="46"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="16"/>
       <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="16"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="23"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="16"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="50"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="20"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="43"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="20"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="51"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="51"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="51"/>
       <c r="F21" s="53"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="54"/>
@@ -2073,78 +2093,78 @@
       <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="14"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="52"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="20"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="43"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="43"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="16"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="52"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="20"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="54"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
-      <c r="B27" s="56"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="14"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="54"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="16"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="20"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="59"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="43"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="14"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="43"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
-      <c r="B30" s="16"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="15"/>
@@ -2153,76 +2173,76 @@
       <c r="H30" s="20"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="59"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="20"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="16"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="59"/>
       <c r="C32" s="14"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="23"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
-      <c r="B33" s="59"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="15"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="13"/>
+      <c r="G33" s="31"/>
       <c r="H33" s="20"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="59"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="20"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="43"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="59"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="14"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="43"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="20"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
-      <c r="B36" s="16"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="20"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D36" s="26"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="30"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="25"/>
       <c r="C37" s="14"/>
       <c r="D37" s="26"/>
       <c r="E37" s="27"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="29"/>
+      <c r="G37" s="24"/>
       <c r="H37" s="30"/>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="25"/>
       <c r="C38" s="14"/>
@@ -2232,8 +2252,8 @@
       <c r="G38" s="24"/>
       <c r="H38" s="30"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
       <c r="B39" s="25"/>
       <c r="C39" s="14"/>
       <c r="D39" s="26"/>
@@ -2242,7 +2262,7 @@
       <c r="G39" s="24"/>
       <c r="H39" s="30"/>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
       <c r="B40" s="25"/>
       <c r="C40" s="14"/>
@@ -2250,141 +2270,141 @@
       <c r="E40" s="27"/>
       <c r="F40" s="28"/>
       <c r="G40" s="24"/>
-      <c r="H40" s="30"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
+      <c r="H40" s="50"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
       <c r="B41" s="25"/>
       <c r="C41" s="14"/>
       <c r="D41" s="26"/>
       <c r="E41" s="27"/>
       <c r="F41" s="28"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="50"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="30"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
+      <c r="A42" s="49"/>
       <c r="B42" s="25"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="30"/>
-    </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="25"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="50"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="50"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="20"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="16"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="20"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="30"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="16"/>
       <c r="C45" s="14"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="30"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="20"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
-      <c r="B46" s="16"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="20"/>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D46" s="26"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="30"/>
+    </row>
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
-      <c r="B47" s="25"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="14"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="29"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="24"/>
       <c r="H47" s="30"/>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
-      <c r="B48" s="16"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="17"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="28"/>
       <c r="G48" s="24"/>
       <c r="H48" s="30"/>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="25"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="59"/>
       <c r="C49" s="14"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="30"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="43"/>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="52"/>
-      <c r="B50" s="59"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="43"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="60"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="52"/>
-      <c r="B51" s="57"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="53"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="34"/>
       <c r="G51" s="21"/>
       <c r="H51" s="60"/>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
-      <c r="B52" s="41"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="40"/>
+      <c r="D52" s="22"/>
       <c r="E52" s="22"/>
       <c r="F52" s="34"/>
       <c r="G52" s="21"/>
-      <c r="H52" s="60"/>
+      <c r="H52" s="43"/>
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
-      <c r="B53" s="22"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="61"/>
       <c r="C53" s="14"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="43"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="54"/>
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="52"/>
-      <c r="B54" s="61"/>
+      <c r="B54" s="56"/>
       <c r="C54" s="14"/>
       <c r="D54" s="55"/>
       <c r="E54" s="51"/>
@@ -2392,145 +2412,145 @@
       <c r="G54" s="52"/>
       <c r="H54" s="54"/>
     </row>
-    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="52"/>
-      <c r="B55" s="56"/>
+    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="63"/>
+      <c r="B55" s="38"/>
       <c r="C55" s="14"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="54"/>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="63"/>
-      <c r="B56" s="38"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="64"/>
+    </row>
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="54"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="14"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="64"/>
-    </row>
-    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
-      <c r="B57" s="37"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="52"/>
+      <c r="B57" s="51"/>
       <c r="C57" s="14"/>
-      <c r="D57" s="55"/>
+      <c r="D57" s="51"/>
       <c r="E57" s="51"/>
       <c r="F57" s="53"/>
       <c r="G57" s="52"/>
       <c r="H57" s="52"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="52"/>
-      <c r="B58" s="51"/>
+    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="35"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="14"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="53"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="39"/>
       <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
+      <c r="H58" s="54"/>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
-      <c r="B59" s="37"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="51"/>
       <c r="C59" s="14"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="54"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
     </row>
     <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="54"/>
+      <c r="A60" s="62"/>
       <c r="B60" s="51"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="55"/>
+      <c r="D60" s="51"/>
       <c r="E60" s="51"/>
       <c r="F60" s="53"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-    </row>
-    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="62"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="54"/>
       <c r="B61" s="51"/>
       <c r="C61" s="14"/>
-      <c r="D61" s="51"/>
+      <c r="D61" s="55"/>
       <c r="E61" s="51"/>
       <c r="F61" s="53"/>
       <c r="G61" s="52"/>
       <c r="H61" s="52"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="54"/>
+    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
       <c r="B62" s="51"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="20"/>
     </row>
     <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="51"/>
+      <c r="A63" s="65"/>
+      <c r="B63" s="66"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
       <c r="F63" s="17"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="20"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="43"/>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="65"/>
-      <c r="B64" s="66"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="59"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="17"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="34"/>
       <c r="G64" s="21"/>
       <c r="H64" s="43"/>
     </row>
     <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
-      <c r="B65" s="59"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="14"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="43"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="20"/>
     </row>
     <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
+      <c r="A66" s="32"/>
       <c r="B66" s="16"/>
       <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="20"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="23"/>
     </row>
     <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
-      <c r="B67" s="16"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="56"/>
       <c r="C67" s="14"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="23"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="54"/>
     </row>
     <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="52"/>
-      <c r="B68" s="56"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="59"/>
       <c r="C68" s="14"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="54"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="43"/>
     </row>
     <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21"/>
@@ -2544,13 +2564,13 @@
     </row>
     <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="14"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
       <c r="D70" s="40"/>
       <c r="E70" s="22"/>
       <c r="F70" s="34"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="43"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="21"/>
     </row>
     <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21"/>
@@ -2573,28 +2593,28 @@
       <c r="H72" s="21"/>
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
-      <c r="B73" s="22"/>
+      <c r="A73" s="52"/>
+      <c r="B73" s="51"/>
       <c r="C73" s="22"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="21"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="52"/>
     </row>
     <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="52"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="51"/>
       <c r="C74" s="22"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="51"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="58"/>
-      <c r="H74" s="52"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="21"/>
     </row>
     <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21"/>
-      <c r="B75" s="51"/>
+      <c r="B75" s="22"/>
       <c r="C75" s="22"/>
       <c r="D75" s="40"/>
       <c r="E75" s="22"/>
@@ -2603,33 +2623,33 @@
       <c r="H75" s="21"/>
     </row>
     <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="22"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="22"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="34"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="53"/>
       <c r="G76" s="42"/>
       <c r="H76" s="21"/>
     </row>
     <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="52"/>
-      <c r="B77" s="51"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="22"/>
       <c r="C77" s="22"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="42"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="21"/>
       <c r="H77" s="21"/>
     </row>
     <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="21"/>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
+      <c r="D78" s="40"/>
       <c r="E78" s="22"/>
       <c r="F78" s="34"/>
-      <c r="G78" s="21"/>
+      <c r="G78" s="42"/>
       <c r="H78" s="21"/>
     </row>
     <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2653,53 +2673,53 @@
       <c r="H80" s="21"/>
     </row>
     <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="21"/>
-      <c r="B81" s="22"/>
+      <c r="A81" s="52"/>
+      <c r="B81" s="51"/>
       <c r="C81" s="22"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="22"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="51"/>
       <c r="F81" s="34"/>
-      <c r="G81" s="42"/>
+      <c r="G81" s="21"/>
       <c r="H81" s="21"/>
     </row>
     <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="52"/>
-      <c r="B82" s="51"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="22"/>
       <c r="C82" s="22"/>
-      <c r="D82" s="51"/>
-      <c r="E82" s="51"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="22"/>
       <c r="F82" s="34"/>
-      <c r="G82" s="21"/>
+      <c r="G82" s="42"/>
       <c r="H82" s="21"/>
     </row>
     <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="21"/>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
-      <c r="D83" s="40"/>
+      <c r="D83" s="22"/>
       <c r="E83" s="22"/>
       <c r="F83" s="34"/>
-      <c r="G83" s="42"/>
+      <c r="G83" s="21"/>
       <c r="H83" s="21"/>
     </row>
     <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="21"/>
       <c r="B84" s="22"/>
       <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
+      <c r="D84" s="40"/>
       <c r="E84" s="22"/>
       <c r="F84" s="34"/>
-      <c r="G84" s="21"/>
+      <c r="G84" s="42"/>
       <c r="H84" s="21"/>
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="21"/>
       <c r="B85" s="22"/>
       <c r="C85" s="22"/>
-      <c r="D85" s="40"/>
+      <c r="D85" s="22"/>
       <c r="E85" s="22"/>
       <c r="F85" s="34"/>
-      <c r="G85" s="42"/>
+      <c r="G85" s="21"/>
       <c r="H85" s="21"/>
     </row>
     <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2716,30 +2736,30 @@
       <c r="A87" s="21"/>
       <c r="B87" s="22"/>
       <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
+      <c r="D87" s="40"/>
       <c r="E87" s="22"/>
       <c r="F87" s="34"/>
-      <c r="G87" s="21"/>
+      <c r="G87" s="42"/>
       <c r="H87" s="21"/>
     </row>
     <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="22"/>
-      <c r="D88" s="40"/>
+      <c r="D88" s="22"/>
       <c r="E88" s="22"/>
       <c r="F88" s="34"/>
-      <c r="G88" s="42"/>
+      <c r="G88" s="21"/>
       <c r="H88" s="21"/>
     </row>
     <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
+      <c r="D89" s="40"/>
       <c r="E89" s="22"/>
       <c r="F89" s="34"/>
-      <c r="G89" s="21"/>
+      <c r="G89" s="42"/>
       <c r="H89" s="21"/>
     </row>
     <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2754,7 +2774,7 @@
     </row>
     <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="21"/>
-      <c r="B91" s="22"/>
+      <c r="B91" s="59"/>
       <c r="C91" s="22"/>
       <c r="D91" s="40"/>
       <c r="E91" s="22"/>
@@ -2802,7 +2822,7 @@
       <c r="G95" s="42"/>
       <c r="H95" s="21"/>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="21"/>
       <c r="B96" s="59"/>
       <c r="C96" s="22"/>
@@ -2840,17 +2860,17 @@
       <c r="E99" s="22"/>
       <c r="F99" s="34"/>
       <c r="G99" s="42"/>
-      <c r="H99" s="21"/>
+      <c r="H99" s="52"/>
     </row>
     <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="21"/>
-      <c r="B100" s="59"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="40"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="34"/>
-      <c r="G100" s="42"/>
-      <c r="H100" s="52"/>
+      <c r="A100" s="44"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="44"/>
+      <c r="E100" s="44"/>
+      <c r="F100" s="44"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="44"/>
     </row>
     <row r="101" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="44"/>
@@ -2892,40 +2912,30 @@
       <c r="G104" s="44"/>
       <c r="H104" s="44"/>
     </row>
-    <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="44"/>
-      <c r="B105" s="44"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="44"/>
-      <c r="E105" s="44"/>
-      <c r="F105" s="44"/>
-      <c r="G105" s="44"/>
-      <c r="H105" s="44"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="A5:H105">
-    <cfRule type="expression" dxfId="37" priority="8">
+  <conditionalFormatting sqref="A5:H104">
+    <cfRule type="expression" dxfId="34" priority="8">
       <formula>$D5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="11">
+    <cfRule type="expression" dxfId="33" priority="11">
       <formula>$B5="CODB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:H105">
-    <cfRule type="expression" dxfId="35" priority="99">
+  <conditionalFormatting sqref="A5:H104">
+    <cfRule type="expression" dxfId="32" priority="99">
       <formula>$B5="Spike"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="100">
+    <cfRule type="expression" dxfId="31" priority="100">
       <formula>$B5="Sprint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="101">
+    <cfRule type="expression" dxfId="30" priority="101">
       <formula>$B5="IceBox"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="102">
+    <cfRule type="expression" dxfId="29" priority="102">
       <formula>$B5="Prioritized"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="103">
+    <cfRule type="expression" dxfId="28" priority="103">
       <formula>$B5="Pending"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2942,7 +2952,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2950,15 +2960,31 @@
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="43"/>
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="40">
+        <v>1</v>
+      </c>
+      <c r="D1" s="69">
+        <v>1</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="70">
+        <v>43477</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
@@ -2991,79 +3017,104 @@
       <c r="H4" s="71"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:H2">
-    <cfRule type="expression" dxfId="20" priority="15">
-      <formula>$D1=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="16">
-      <formula>$B1="CODB"</formula>
+  <conditionalFormatting sqref="A2:H2">
+    <cfRule type="expression" dxfId="27" priority="22">
+      <formula>$D2=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="23">
+      <formula>$B2="CODB"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:H2">
-    <cfRule type="expression" dxfId="18" priority="17">
-      <formula>$B1="Spike"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>$B1="Sprint"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="19">
-      <formula>$B1="IceBox"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="20">
-      <formula>$B1="Prioritized"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="21">
-      <formula>$B1="Pending"</formula>
+  <conditionalFormatting sqref="A2:H2">
+    <cfRule type="expression" dxfId="25" priority="24">
+      <formula>$B2="Spike"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>$B2="Sprint"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="26">
+      <formula>$B2="IceBox"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="27">
+      <formula>$B2="Prioritized"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="28">
+      <formula>$B2="Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:H3">
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="20" priority="15">
       <formula>$D3=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="9">
+    <cfRule type="expression" dxfId="19" priority="16">
       <formula>$B3="CODB"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:H3">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>$B3="Spike"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>$B3="Sprint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>$B3="IceBox"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="13">
+    <cfRule type="expression" dxfId="15" priority="20">
       <formula>$B3="Prioritized"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="14">
+    <cfRule type="expression" dxfId="14" priority="21">
       <formula>$B3="Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:H4">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>$D4=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>$B4="CODB"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:H4">
+    <cfRule type="expression" dxfId="11" priority="10">
+      <formula>$B4="Spike"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$B4="Sprint"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>$B4="IceBox"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="13">
+      <formula>$B4="Prioritized"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="14">
+      <formula>$B4="Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:H1">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>$D1=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>$B1="CODB"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:H1">
     <cfRule type="expression" dxfId="4" priority="3">
-      <formula>$B4="Spike"</formula>
+      <formula>$B1="Spike"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$B4="Sprint"</formula>
+      <formula>$B1="Sprint"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="5">
-      <formula>$B4="IceBox"</formula>
+      <formula>$B1="IceBox"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="6">
-      <formula>$B4="Prioritized"</formula>
+      <formula>$B1="Prioritized"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="7">
-      <formula>$B4="Pending"</formula>
+      <formula>$B1="Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
